--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2627,28 +2627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1527.634916455781</v>
+        <v>1772.279617376929</v>
       </c>
       <c r="AB2" t="n">
-        <v>2090.17748719085</v>
+        <v>2424.911159953639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1890.693881395882</v>
+        <v>2193.481042231851</v>
       </c>
       <c r="AD2" t="n">
-        <v>1527634.916455781</v>
+        <v>1772279.617376929</v>
       </c>
       <c r="AE2" t="n">
-        <v>2090177.48719085</v>
+        <v>2424911.159953638</v>
       </c>
       <c r="AF2" t="n">
         <v>3.285412492280666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1890693.881395882</v>
+        <v>2193481.042231851</v>
       </c>
     </row>
     <row r="3">
@@ -2733,28 +2733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>787.1503611427644</v>
+        <v>943.6310508230717</v>
       </c>
       <c r="AB3" t="n">
-        <v>1077.013850738582</v>
+        <v>1291.117633799987</v>
       </c>
       <c r="AC3" t="n">
-        <v>974.2251604225245</v>
+        <v>1167.895178925095</v>
       </c>
       <c r="AD3" t="n">
-        <v>787150.3611427643</v>
+        <v>943631.0508230717</v>
       </c>
       <c r="AE3" t="n">
-        <v>1077013.850738582</v>
+        <v>1291117.633799987</v>
       </c>
       <c r="AF3" t="n">
         <v>5.147499819135367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.48828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>974225.1604225244</v>
+        <v>1167895.178925096</v>
       </c>
     </row>
     <row r="4">
@@ -2839,28 +2839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>646.3475061742372</v>
+        <v>783.3526385403333</v>
       </c>
       <c r="AB4" t="n">
-        <v>884.3611727870881</v>
+        <v>1071.81763913024</v>
       </c>
       <c r="AC4" t="n">
-        <v>799.9589836649892</v>
+        <v>969.5248679571533</v>
       </c>
       <c r="AD4" t="n">
-        <v>646347.5061742372</v>
+        <v>783352.6385403333</v>
       </c>
       <c r="AE4" t="n">
-        <v>884361.1727870881</v>
+        <v>1071817.63913024</v>
       </c>
       <c r="AF4" t="n">
         <v>5.862055339176451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>799958.9836649892</v>
+        <v>969524.8679571534</v>
       </c>
     </row>
     <row r="5">
@@ -2945,28 +2945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>570.9132552331371</v>
+        <v>698.1298663288848</v>
       </c>
       <c r="AB5" t="n">
-        <v>781.1487027251967</v>
+        <v>955.2120824271767</v>
       </c>
       <c r="AC5" t="n">
-        <v>706.5969668861931</v>
+        <v>864.0479819289039</v>
       </c>
       <c r="AD5" t="n">
-        <v>570913.2552331371</v>
+        <v>698129.8663288847</v>
       </c>
       <c r="AE5" t="n">
-        <v>781148.7027251967</v>
+        <v>955212.0824271768</v>
       </c>
       <c r="AF5" t="n">
         <v>6.324202077340674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>706596.966886193</v>
+        <v>864047.981928904</v>
       </c>
     </row>
     <row r="6">
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>552.6903045198205</v>
+        <v>670.0852399562963</v>
       </c>
       <c r="AB6" t="n">
-        <v>756.2152576193907</v>
+        <v>916.8401873826057</v>
       </c>
       <c r="AC6" t="n">
-        <v>684.0431347869752</v>
+        <v>829.3382466920938</v>
       </c>
       <c r="AD6" t="n">
-        <v>552690.3045198205</v>
+        <v>670085.2399562963</v>
       </c>
       <c r="AE6" t="n">
-        <v>756215.2576193907</v>
+        <v>916840.1873826056</v>
       </c>
       <c r="AF6" t="n">
         <v>6.459446897429422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>684043.1347869752</v>
+        <v>829338.2466920938</v>
       </c>
     </row>
     <row r="7">
@@ -3157,28 +3157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>516.8359788298901</v>
+        <v>634.2982340740704</v>
       </c>
       <c r="AB7" t="n">
-        <v>707.157787429215</v>
+        <v>867.8748271232715</v>
       </c>
       <c r="AC7" t="n">
-        <v>639.6676406991581</v>
+        <v>785.0460716925959</v>
       </c>
       <c r="AD7" t="n">
-        <v>516835.9788298901</v>
+        <v>634298.2340740704</v>
       </c>
       <c r="AE7" t="n">
-        <v>707157.7874292149</v>
+        <v>867874.8271232715</v>
       </c>
       <c r="AF7" t="n">
         <v>6.64917537053075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.60677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>639667.6406991582</v>
+        <v>785046.0716925958</v>
       </c>
     </row>
     <row r="8">
@@ -3263,28 +3263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>512.3479412037404</v>
+        <v>629.7087112214354</v>
       </c>
       <c r="AB8" t="n">
-        <v>701.017056350871</v>
+        <v>861.5952394808381</v>
       </c>
       <c r="AC8" t="n">
-        <v>634.112972376361</v>
+        <v>779.3657990812997</v>
       </c>
       <c r="AD8" t="n">
-        <v>512347.9412037404</v>
+        <v>629708.7112214353</v>
       </c>
       <c r="AE8" t="n">
-        <v>701017.056350871</v>
+        <v>861595.2394808382</v>
       </c>
       <c r="AF8" t="n">
         <v>6.680756603029191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.49609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>634112.972376361</v>
+        <v>779365.7990812997</v>
       </c>
     </row>
   </sheetData>
@@ -3560,28 +3560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1113.800707507949</v>
+        <v>1307.344370702407</v>
       </c>
       <c r="AB2" t="n">
-        <v>1523.951265431647</v>
+        <v>1788.766243958104</v>
       </c>
       <c r="AC2" t="n">
-        <v>1378.507495537885</v>
+        <v>1618.048904183933</v>
       </c>
       <c r="AD2" t="n">
-        <v>1113800.70750795</v>
+        <v>1307344.370702407</v>
       </c>
       <c r="AE2" t="n">
-        <v>1523951.265431647</v>
+        <v>1788766.243958104</v>
       </c>
       <c r="AF2" t="n">
         <v>4.274089483164205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.18229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1378507.495537885</v>
+        <v>1618048.904183934</v>
       </c>
     </row>
     <row r="3">
@@ -3666,28 +3666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>657.2372511842663</v>
+        <v>792.6976194780756</v>
       </c>
       <c r="AB3" t="n">
-        <v>899.2610023314534</v>
+        <v>1084.603854320721</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.4367943896824</v>
+        <v>981.0907847154208</v>
       </c>
       <c r="AD3" t="n">
-        <v>657237.2511842663</v>
+        <v>792697.6194780755</v>
       </c>
       <c r="AE3" t="n">
-        <v>899261.0023314534</v>
+        <v>1084603.854320721</v>
       </c>
       <c r="AF3" t="n">
         <v>6.115828221141892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.07942708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>813436.7943896824</v>
+        <v>981090.7847154208</v>
       </c>
     </row>
     <row r="4">
@@ -3772,28 +3772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.0797002832809</v>
+        <v>680.8253540082012</v>
       </c>
       <c r="AB4" t="n">
-        <v>759.4845343156585</v>
+        <v>931.5352852488134</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.0003963038101</v>
+        <v>842.6308650426502</v>
       </c>
       <c r="AD4" t="n">
-        <v>555079.7002832809</v>
+        <v>680825.3540082012</v>
       </c>
       <c r="AE4" t="n">
-        <v>759484.5343156585</v>
+        <v>931535.2852488133</v>
       </c>
       <c r="AF4" t="n">
         <v>6.801666192889529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.24739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>687000.3963038102</v>
+        <v>842630.8650426501</v>
       </c>
     </row>
     <row r="5">
@@ -3878,28 +3878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.8596752096113</v>
+        <v>625.9589452032044</v>
       </c>
       <c r="AB5" t="n">
-        <v>697.6125010431554</v>
+        <v>856.4646441866929</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.0333430488905</v>
+        <v>774.7248606011921</v>
       </c>
       <c r="AD5" t="n">
-        <v>509859.6752096113</v>
+        <v>625958.9452032044</v>
       </c>
       <c r="AE5" t="n">
-        <v>697612.5010431553</v>
+        <v>856464.6441866929</v>
       </c>
       <c r="AF5" t="n">
         <v>7.133242473845983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.07552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>631033.3430488905</v>
+        <v>774724.8606011921</v>
       </c>
     </row>
     <row r="6">
@@ -3984,28 +3984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>484.1157564966124</v>
+        <v>600.2823462979097</v>
       </c>
       <c r="AB6" t="n">
-        <v>662.3885357184931</v>
+        <v>821.3327887928723</v>
       </c>
       <c r="AC6" t="n">
-        <v>599.1711035376683</v>
+        <v>742.9459401782889</v>
       </c>
       <c r="AD6" t="n">
-        <v>484115.7564966124</v>
+        <v>600282.3462979097</v>
       </c>
       <c r="AE6" t="n">
-        <v>662388.5357184932</v>
+        <v>821332.7887928723</v>
       </c>
       <c r="AF6" t="n">
         <v>7.273047906548385e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.61328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>599171.1035376682</v>
+        <v>742945.9401782888</v>
       </c>
     </row>
   </sheetData>
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.5785805100417</v>
+        <v>654.8424757683778</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.0691154586131</v>
+        <v>895.9843649573997</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.8737472464521</v>
+        <v>810.4728746878191</v>
       </c>
       <c r="AD2" t="n">
-        <v>514578.5805100417</v>
+        <v>654842.4757683778</v>
       </c>
       <c r="AE2" t="n">
-        <v>704069.115458613</v>
+        <v>895984.3649573998</v>
       </c>
       <c r="AF2" t="n">
         <v>8.61810736503321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>636873.7472464521</v>
+        <v>810472.874687819</v>
       </c>
     </row>
     <row r="3">
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.0793917914344</v>
+        <v>563.599169181394</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.8725270153429</v>
+        <v>771.1412475144984</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.1443419809215</v>
+        <v>697.5446091552524</v>
       </c>
       <c r="AD3" t="n">
-        <v>442079.3917914344</v>
+        <v>563599.169181394</v>
       </c>
       <c r="AE3" t="n">
-        <v>604872.527015343</v>
+        <v>771141.2475144984</v>
       </c>
       <c r="AF3" t="n">
         <v>9.552192826010235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>547144.3419809215</v>
+        <v>697544.6091552523</v>
       </c>
     </row>
   </sheetData>
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.8638494020367</v>
+        <v>835.4834862312136</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.6926886956152</v>
+        <v>1143.145364791587</v>
       </c>
       <c r="AC2" t="n">
-        <v>846.3914917394417</v>
+        <v>1034.045175590473</v>
       </c>
       <c r="AD2" t="n">
-        <v>683863.8494020368</v>
+        <v>835483.4862312137</v>
       </c>
       <c r="AE2" t="n">
-        <v>935692.6886956152</v>
+        <v>1143145.364791587</v>
       </c>
       <c r="AF2" t="n">
         <v>6.590268591484625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.49739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>846391.4917394416</v>
+        <v>1034045.175590473</v>
       </c>
     </row>
     <row r="3">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.1988891440907</v>
+        <v>592.4381353955355</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.9786197210308</v>
+        <v>810.5999933740827</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.7090812775067</v>
+        <v>733.2374676906956</v>
       </c>
       <c r="AD3" t="n">
-        <v>469198.8891440907</v>
+        <v>592438.1353955355</v>
       </c>
       <c r="AE3" t="n">
-        <v>641978.6197210308</v>
+        <v>810599.9933740827</v>
       </c>
       <c r="AF3" t="n">
         <v>8.342019311965371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>580709.0812775067</v>
+        <v>733237.4676906955</v>
       </c>
     </row>
     <row r="4">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.9571242912692</v>
+        <v>567.6806460253115</v>
       </c>
       <c r="AB4" t="n">
-        <v>621.1241646301921</v>
+        <v>776.7257041943963</v>
       </c>
       <c r="AC4" t="n">
-        <v>561.8449461111259</v>
+        <v>702.5960931274551</v>
       </c>
       <c r="AD4" t="n">
-        <v>453957.1242912692</v>
+        <v>567680.6460253114</v>
       </c>
       <c r="AE4" t="n">
-        <v>621124.1646301921</v>
+        <v>776725.7041943963</v>
       </c>
       <c r="AF4" t="n">
         <v>8.553734360818523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>561844.9461111259</v>
+        <v>702596.0931274551</v>
       </c>
     </row>
   </sheetData>
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.5429299537533</v>
+        <v>556.7417716313521</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.2972956775698</v>
+        <v>761.7586536595026</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.2920800901213</v>
+        <v>689.0574768892241</v>
       </c>
       <c r="AD2" t="n">
-        <v>436542.9299537534</v>
+        <v>556741.7716313521</v>
       </c>
       <c r="AE2" t="n">
-        <v>597297.2956775698</v>
+        <v>761758.6536595025</v>
       </c>
       <c r="AF2" t="n">
         <v>1.04625195960883e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.24348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>540292.0800901214</v>
+        <v>689057.476889224</v>
       </c>
     </row>
     <row r="3">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.4434762865246</v>
+        <v>558.6423179641233</v>
       </c>
       <c r="AB3" t="n">
-        <v>599.897707016254</v>
+        <v>764.3590649981867</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.6443118203418</v>
+        <v>691.4097086194444</v>
       </c>
       <c r="AD3" t="n">
-        <v>438443.4762865246</v>
+        <v>558642.3179641233</v>
       </c>
       <c r="AE3" t="n">
-        <v>599897.707016254</v>
+        <v>764359.0649981867</v>
       </c>
       <c r="AF3" t="n">
         <v>1.045830253861305e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>542644.3118203419</v>
+        <v>691409.7086194444</v>
       </c>
     </row>
   </sheetData>
@@ -5596,28 +5596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1197.749277647499</v>
+        <v>1411.277378184127</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.81340264611</v>
+        <v>1930.971969995275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1482.407351586621</v>
+        <v>1746.682715315106</v>
       </c>
       <c r="AD2" t="n">
-        <v>1197749.277647499</v>
+        <v>1411277.378184126</v>
       </c>
       <c r="AE2" t="n">
-        <v>1638813.40264611</v>
+        <v>1930971.969995275</v>
       </c>
       <c r="AF2" t="n">
         <v>4.00043195034045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.89453124999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1482407.351586621</v>
+        <v>1746682.715315106</v>
       </c>
     </row>
     <row r="3">
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.4789836353411</v>
+        <v>829.0787486989619</v>
       </c>
       <c r="AB3" t="n">
-        <v>935.1660983745433</v>
+        <v>1134.382120342882</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.9151584595384</v>
+        <v>1026.118282892662</v>
       </c>
       <c r="AD3" t="n">
-        <v>683478.9836353412</v>
+        <v>829078.7486989619</v>
       </c>
       <c r="AE3" t="n">
-        <v>935166.0983745432</v>
+        <v>1134382.120342882</v>
       </c>
       <c r="AF3" t="n">
         <v>5.846844560841191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.66536458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>845915.1584595384</v>
+        <v>1026118.282892662</v>
       </c>
     </row>
     <row r="4">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>575.2982015313524</v>
+        <v>701.5142746161004</v>
       </c>
       <c r="AB4" t="n">
-        <v>787.1483797005925</v>
+        <v>959.8427791553011</v>
       </c>
       <c r="AC4" t="n">
-        <v>712.0240431116567</v>
+        <v>868.2367314605198</v>
       </c>
       <c r="AD4" t="n">
-        <v>575298.2015313525</v>
+        <v>701514.2746161004</v>
       </c>
       <c r="AE4" t="n">
-        <v>787148.3797005925</v>
+        <v>959842.779155301</v>
       </c>
       <c r="AF4" t="n">
         <v>6.539796289193067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>712024.0431116568</v>
+        <v>868236.7314605197</v>
       </c>
     </row>
     <row r="5">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>529.5315673248226</v>
+        <v>645.9713919030393</v>
       </c>
       <c r="AB5" t="n">
-        <v>724.5284516978169</v>
+        <v>883.8465566482445</v>
       </c>
       <c r="AC5" t="n">
-        <v>655.3804731498449</v>
+        <v>799.4934817681686</v>
       </c>
       <c r="AD5" t="n">
-        <v>529531.5673248227</v>
+        <v>645971.3919030393</v>
       </c>
       <c r="AE5" t="n">
-        <v>724528.4516978168</v>
+        <v>883846.5566482445</v>
       </c>
       <c r="AF5" t="n">
         <v>6.864134765316158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.4140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>655380.4731498449</v>
+        <v>799493.4817681686</v>
       </c>
     </row>
     <row r="6">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>490.8872316651427</v>
+        <v>607.3943760510639</v>
       </c>
       <c r="AB6" t="n">
-        <v>671.653566780477</v>
+        <v>831.0637816617464</v>
       </c>
       <c r="AC6" t="n">
-        <v>607.5518930386492</v>
+        <v>751.7482207452919</v>
       </c>
       <c r="AD6" t="n">
-        <v>490887.2316651428</v>
+        <v>607394.3760510639</v>
       </c>
       <c r="AE6" t="n">
-        <v>671653.5667804771</v>
+        <v>831063.7816617463</v>
       </c>
       <c r="AF6" t="n">
         <v>7.110477560276316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.56770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>607551.8930386491</v>
+        <v>751748.2207452919</v>
       </c>
     </row>
     <row r="7">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>492.2428239747327</v>
+        <v>608.749968360654</v>
       </c>
       <c r="AB7" t="n">
-        <v>673.5083479829698</v>
+        <v>832.9185628642393</v>
       </c>
       <c r="AC7" t="n">
-        <v>609.2296565263778</v>
+        <v>753.4259842330206</v>
       </c>
       <c r="AD7" t="n">
-        <v>492242.8239747327</v>
+        <v>608749.968360654</v>
       </c>
       <c r="AE7" t="n">
-        <v>673508.3479829698</v>
+        <v>832918.5628642393</v>
       </c>
       <c r="AF7" t="n">
         <v>7.096319928382055e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.61328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>609229.6565263778</v>
+        <v>753425.9842330206</v>
       </c>
     </row>
   </sheetData>
@@ -6423,28 +6423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.5713527928696</v>
+        <v>568.1231246501834</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.4409174106349</v>
+        <v>777.3311229697254</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.0402403805924</v>
+        <v>703.1437315845772</v>
       </c>
       <c r="AD2" t="n">
-        <v>439571.3527928696</v>
+        <v>568123.1246501834</v>
       </c>
       <c r="AE2" t="n">
-        <v>601440.9174106349</v>
+        <v>777331.1229697254</v>
       </c>
       <c r="AF2" t="n">
         <v>1.100818576785932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>544040.2403805924</v>
+        <v>703143.7315845771</v>
       </c>
     </row>
   </sheetData>
@@ -6720,28 +6720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>875.2542153985994</v>
+        <v>1047.846203503274</v>
       </c>
       <c r="AB2" t="n">
-        <v>1197.561430999144</v>
+        <v>1433.709403345091</v>
       </c>
       <c r="AC2" t="n">
-        <v>1083.26784881261</v>
+        <v>1296.87819011362</v>
       </c>
       <c r="AD2" t="n">
-        <v>875254.2153985994</v>
+        <v>1047846.203503274</v>
       </c>
       <c r="AE2" t="n">
-        <v>1197561.430999144</v>
+        <v>1433709.403345091</v>
       </c>
       <c r="AF2" t="n">
         <v>5.256135223341244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.52734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1083267.84881261</v>
+        <v>1296878.19011362</v>
       </c>
     </row>
     <row r="3">
@@ -6826,28 +6826,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>563.6652039974324</v>
+        <v>697.767766322469</v>
       </c>
       <c r="AB3" t="n">
-        <v>771.2315992630524</v>
+        <v>954.7166412236737</v>
       </c>
       <c r="AC3" t="n">
-        <v>697.6263378597339</v>
+        <v>863.5998249385073</v>
       </c>
       <c r="AD3" t="n">
-        <v>563665.2039974324</v>
+        <v>697767.766322469</v>
       </c>
       <c r="AE3" t="n">
-        <v>771231.5992630525</v>
+        <v>954716.6412236737</v>
       </c>
       <c r="AF3" t="n">
         <v>7.04967484416268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.49088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>697626.3378597338</v>
+        <v>863599.8249385073</v>
       </c>
     </row>
     <row r="4">
@@ -6932,28 +6932,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.7141445180814</v>
+        <v>598.7081501134934</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.8390324915971</v>
+        <v>819.1789041247198</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.6740441275143</v>
+        <v>740.9976192398688</v>
       </c>
       <c r="AD4" t="n">
-        <v>483714.1445180813</v>
+        <v>598708.1501134934</v>
       </c>
       <c r="AE4" t="n">
-        <v>661839.0324915971</v>
+        <v>819178.9041247198</v>
       </c>
       <c r="AF4" t="n">
         <v>7.726877314138597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>598674.0441275144</v>
+        <v>740997.6192398687</v>
       </c>
     </row>
     <row r="5">
@@ -7038,28 +7038,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.7020506572654</v>
+        <v>588.2834890064133</v>
       </c>
       <c r="AB5" t="n">
-        <v>634.4576027999574</v>
+        <v>804.915422894423</v>
       </c>
       <c r="AC5" t="n">
-        <v>573.9058596555668</v>
+        <v>728.0954246392698</v>
       </c>
       <c r="AD5" t="n">
-        <v>463702.0506572654</v>
+        <v>588283.4890064134</v>
       </c>
       <c r="AE5" t="n">
-        <v>634457.6027999574</v>
+        <v>804915.422894423</v>
       </c>
       <c r="AF5" t="n">
         <v>7.83759317750611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>573905.8596555669</v>
+        <v>728095.4246392698</v>
       </c>
     </row>
   </sheetData>
@@ -7335,28 +7335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1025.981496174817</v>
+        <v>1218.969139424636</v>
       </c>
       <c r="AB2" t="n">
-        <v>1403.793146175487</v>
+        <v>1667.847353683819</v>
       </c>
       <c r="AC2" t="n">
-        <v>1269.817098540553</v>
+        <v>1508.670343086698</v>
       </c>
       <c r="AD2" t="n">
-        <v>1025981.496174818</v>
+        <v>1218969.139424636</v>
       </c>
       <c r="AE2" t="n">
-        <v>1403793.146175487</v>
+        <v>1667847.353683819</v>
       </c>
       <c r="AF2" t="n">
         <v>4.572545172204281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.54817708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1269817.098540553</v>
+        <v>1508670.343086698</v>
       </c>
     </row>
     <row r="3">
@@ -7441,28 +7441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>623.0714797605062</v>
+        <v>758.1867458285255</v>
       </c>
       <c r="AB3" t="n">
-        <v>852.5138865820087</v>
+        <v>1037.384554481115</v>
       </c>
       <c r="AC3" t="n">
-        <v>771.1511577573756</v>
+        <v>938.378028579803</v>
       </c>
       <c r="AD3" t="n">
-        <v>623071.4797605062</v>
+        <v>758186.7458285255</v>
       </c>
       <c r="AE3" t="n">
-        <v>852513.8865820087</v>
+        <v>1037384.554481115</v>
       </c>
       <c r="AF3" t="n">
         <v>6.394361529819451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>771151.1577573756</v>
+        <v>938378.028579803</v>
       </c>
     </row>
     <row r="4">
@@ -7547,28 +7547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.6851284826079</v>
+        <v>649.1151386984164</v>
       </c>
       <c r="AB4" t="n">
-        <v>716.5290961472206</v>
+        <v>888.1479697059996</v>
       </c>
       <c r="AC4" t="n">
-        <v>648.1445648658315</v>
+        <v>803.3843740007627</v>
       </c>
       <c r="AD4" t="n">
-        <v>523685.1284826079</v>
+        <v>649115.1386984164</v>
       </c>
       <c r="AE4" t="n">
-        <v>716529.0961472206</v>
+        <v>888147.9697059996</v>
       </c>
       <c r="AF4" t="n">
         <v>7.100183382145615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.82421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>648144.5648658315</v>
+        <v>803384.3740007627</v>
       </c>
     </row>
     <row r="5">
@@ -7653,28 +7653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.6603105552784</v>
+        <v>606.0561553523061</v>
       </c>
       <c r="AB5" t="n">
-        <v>657.6606421380438</v>
+        <v>829.2327690635753</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.8944334848968</v>
+        <v>750.0919574196481</v>
       </c>
       <c r="AD5" t="n">
-        <v>480660.3105552784</v>
+        <v>606056.1553523061</v>
       </c>
       <c r="AE5" t="n">
-        <v>657660.6421380439</v>
+        <v>829232.7690635753</v>
       </c>
       <c r="AF5" t="n">
         <v>7.411535560962294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.78255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>594894.4334848968</v>
+        <v>750091.9574196481</v>
       </c>
     </row>
     <row r="6">
@@ -7759,28 +7759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>478.4799527996408</v>
+        <v>594.2930380008003</v>
       </c>
       <c r="AB6" t="n">
-        <v>654.6773804661852</v>
+        <v>813.1379529511332</v>
       </c>
       <c r="AC6" t="n">
-        <v>592.1958901199662</v>
+        <v>735.5332079677612</v>
       </c>
       <c r="AD6" t="n">
-        <v>478479.9527996408</v>
+        <v>594293.0380008003</v>
       </c>
       <c r="AE6" t="n">
-        <v>654677.3804661853</v>
+        <v>813137.9529511333</v>
       </c>
       <c r="AF6" t="n">
         <v>7.43238261989176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.71744791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>592195.8901199662</v>
+        <v>735533.2079677612</v>
       </c>
     </row>
   </sheetData>
@@ -8056,28 +8056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1408.672145877699</v>
+        <v>1642.911854482647</v>
       </c>
       <c r="AB2" t="n">
-        <v>1927.407376218884</v>
+        <v>2247.904479458784</v>
       </c>
       <c r="AC2" t="n">
-        <v>1743.458321365796</v>
+        <v>2033.367630892989</v>
       </c>
       <c r="AD2" t="n">
-        <v>1408672.145877699</v>
+        <v>1642911.854482647</v>
       </c>
       <c r="AE2" t="n">
-        <v>1927407.376218884</v>
+        <v>2247904.479458784</v>
       </c>
       <c r="AF2" t="n">
         <v>3.507673630946871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.68359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1743458.321365796</v>
+        <v>2033367.630892989</v>
       </c>
     </row>
     <row r="3">
@@ -8162,28 +8162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>748.2136063796235</v>
+        <v>904.3506351704009</v>
       </c>
       <c r="AB3" t="n">
-        <v>1023.738865103267</v>
+        <v>1237.372436174368</v>
       </c>
       <c r="AC3" t="n">
-        <v>926.0346646443317</v>
+        <v>1119.279347529008</v>
       </c>
       <c r="AD3" t="n">
-        <v>748213.6063796234</v>
+        <v>904350.6351704008</v>
       </c>
       <c r="AE3" t="n">
-        <v>1023738.865103267</v>
+        <v>1237372.436174368</v>
       </c>
       <c r="AF3" t="n">
         <v>5.365864475294954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>926034.6646443317</v>
+        <v>1119279.347529008</v>
       </c>
     </row>
     <row r="4">
@@ -8268,28 +8268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.7346126944018</v>
+        <v>752.5841475847227</v>
       </c>
       <c r="AB4" t="n">
-        <v>856.1577025512973</v>
+        <v>1029.718832394754</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.4472130446834</v>
+        <v>931.4439122504557</v>
       </c>
       <c r="AD4" t="n">
-        <v>625734.6126944018</v>
+        <v>752584.1475847227</v>
       </c>
       <c r="AE4" t="n">
-        <v>856157.7025512974</v>
+        <v>1029718.832394754</v>
       </c>
       <c r="AF4" t="n">
         <v>6.072223114139853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.38671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>774447.2130446834</v>
+        <v>931443.9122504557</v>
       </c>
     </row>
     <row r="5">
@@ -8374,28 +8374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>559.0763166260659</v>
+        <v>685.9590059053105</v>
       </c>
       <c r="AB5" t="n">
-        <v>764.9528811141259</v>
+        <v>938.5593742551758</v>
       </c>
       <c r="AC5" t="n">
-        <v>691.9468517587047</v>
+        <v>848.9845848526162</v>
       </c>
       <c r="AD5" t="n">
-        <v>559076.3166260659</v>
+        <v>685959.0059053105</v>
       </c>
       <c r="AE5" t="n">
-        <v>764952.881114126</v>
+        <v>938559.3742551758</v>
       </c>
       <c r="AF5" t="n">
         <v>6.475856622051226e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.74609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>691946.8517587048</v>
+        <v>848984.5848526162</v>
       </c>
     </row>
     <row r="6">
@@ -8480,28 +8480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>523.7612289544104</v>
+        <v>650.6097528148742</v>
       </c>
       <c r="AB6" t="n">
-        <v>716.6332201700565</v>
+        <v>890.1929666778585</v>
       </c>
       <c r="AC6" t="n">
-        <v>648.2387514380671</v>
+        <v>805.2341993317987</v>
       </c>
       <c r="AD6" t="n">
-        <v>523761.2289544104</v>
+        <v>650609.7528148743</v>
       </c>
       <c r="AE6" t="n">
-        <v>716633.2201700564</v>
+        <v>890192.9666778585</v>
       </c>
       <c r="AF6" t="n">
         <v>6.678903965970055e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.99088541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>648238.7514380671</v>
+        <v>805234.1993317987</v>
       </c>
     </row>
     <row r="7">
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>504.5503686002248</v>
+        <v>621.7043883214791</v>
       </c>
       <c r="AB7" t="n">
-        <v>690.3480735101163</v>
+        <v>850.643371763314</v>
       </c>
       <c r="AC7" t="n">
-        <v>624.4622222839165</v>
+        <v>769.4591622476931</v>
       </c>
       <c r="AD7" t="n">
-        <v>504550.3686002248</v>
+        <v>621704.3883214791</v>
       </c>
       <c r="AE7" t="n">
-        <v>690348.0735101162</v>
+        <v>850643.371763314</v>
       </c>
       <c r="AF7" t="n">
         <v>6.816483923849603e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.50911458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>624462.2222839165</v>
+        <v>769459.1622476932</v>
       </c>
     </row>
     <row r="8">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>505.3214301825333</v>
+        <v>622.4754499037875</v>
       </c>
       <c r="AB8" t="n">
-        <v>691.403073983867</v>
+        <v>851.6983722370647</v>
       </c>
       <c r="AC8" t="n">
-        <v>625.416534993155</v>
+        <v>770.4134749569316</v>
       </c>
       <c r="AD8" t="n">
-        <v>505321.4301825333</v>
+        <v>622475.4499037876</v>
       </c>
       <c r="AE8" t="n">
-        <v>691403.073983867</v>
+        <v>851698.3722370648</v>
       </c>
       <c r="AF8" t="n">
         <v>6.816237805856973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.50911458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>625416.5349931549</v>
+        <v>770413.4749569317</v>
       </c>
     </row>
   </sheetData>
@@ -8989,28 +8989,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>742.3275628076688</v>
+        <v>904.1290112053911</v>
       </c>
       <c r="AB2" t="n">
-        <v>1015.685320614203</v>
+        <v>1237.069200488082</v>
       </c>
       <c r="AC2" t="n">
-        <v>918.7497391380832</v>
+        <v>1119.005052231026</v>
       </c>
       <c r="AD2" t="n">
-        <v>742327.5628076687</v>
+        <v>904129.011205391</v>
       </c>
       <c r="AE2" t="n">
-        <v>1015685.320614203</v>
+        <v>1237069.200488082</v>
       </c>
       <c r="AF2" t="n">
         <v>6.084903264923569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.82552083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>918749.7391380832</v>
+        <v>1119005.052231026</v>
       </c>
     </row>
     <row r="3">
@@ -9095,28 +9095,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.2304656063852</v>
+        <v>627.8856262395789</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.9103681208207</v>
+        <v>859.1008141798289</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.0662908826521</v>
+        <v>777.1094382300709</v>
       </c>
       <c r="AD3" t="n">
-        <v>504230.4656063851</v>
+        <v>627885.6262395788</v>
       </c>
       <c r="AE3" t="n">
-        <v>689910.3681208207</v>
+        <v>859100.814179829</v>
       </c>
       <c r="AF3" t="n">
         <v>7.859871265507617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>624066.290882652</v>
+        <v>777109.4382300709</v>
       </c>
     </row>
     <row r="4">
@@ -9201,28 +9201,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.7373224480671</v>
+        <v>571.4256374701844</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.6139573500317</v>
+        <v>781.8497667066334</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.1469410696332</v>
+        <v>707.2311223051911</v>
       </c>
       <c r="AD4" t="n">
-        <v>447737.3224480671</v>
+        <v>571425.6374701844</v>
       </c>
       <c r="AE4" t="n">
-        <v>612613.9573500317</v>
+        <v>781849.7667066334</v>
       </c>
       <c r="AF4" t="n">
         <v>8.343730303869077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.93880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>554146.9410696331</v>
+        <v>707231.1223051911</v>
       </c>
     </row>
   </sheetData>
@@ -9498,28 +9498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>576.4298497922608</v>
+        <v>717.3423650954778</v>
       </c>
       <c r="AB2" t="n">
-        <v>788.696750775965</v>
+        <v>981.4994708352543</v>
       </c>
       <c r="AC2" t="n">
-        <v>713.4246398247483</v>
+        <v>887.8265388818961</v>
       </c>
       <c r="AD2" t="n">
-        <v>576429.8497922608</v>
+        <v>717342.3650954778</v>
       </c>
       <c r="AE2" t="n">
-        <v>788696.750775965</v>
+        <v>981499.4708352543</v>
       </c>
       <c r="AF2" t="n">
         <v>7.819062104980368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.04947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>713424.6398247483</v>
+        <v>887826.5388818961</v>
       </c>
     </row>
     <row r="3">
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.0658076630655</v>
+        <v>561.2437760366932</v>
       </c>
       <c r="AB3" t="n">
-        <v>600.7492082609599</v>
+        <v>767.9184947013071</v>
       </c>
       <c r="AC3" t="n">
-        <v>543.4145469813424</v>
+        <v>694.62943134739</v>
       </c>
       <c r="AD3" t="n">
-        <v>439065.8076630655</v>
+        <v>561243.7760366932</v>
       </c>
       <c r="AE3" t="n">
-        <v>600749.2082609599</v>
+        <v>767918.494701307</v>
       </c>
       <c r="AF3" t="n">
         <v>9.189107477381666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.72005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>543414.5469813424</v>
+        <v>694629.4313473899</v>
       </c>
     </row>
   </sheetData>
@@ -16850,28 +16850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.0069440351072</v>
+        <v>593.2563224634587</v>
       </c>
       <c r="AB2" t="n">
-        <v>633.5065272535805</v>
+        <v>811.7194730162809</v>
       </c>
       <c r="AC2" t="n">
-        <v>573.0455534244934</v>
+        <v>734.2501057670419</v>
       </c>
       <c r="AD2" t="n">
-        <v>463006.9440351072</v>
+        <v>593256.3224634586</v>
       </c>
       <c r="AE2" t="n">
-        <v>633506.5272535805</v>
+        <v>811719.4730162809</v>
       </c>
       <c r="AF2" t="n">
         <v>9.594920698956718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>573045.5534244934</v>
+        <v>734250.1057670419</v>
       </c>
     </row>
     <row r="3">
@@ -16956,28 +16956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.5524331656963</v>
+        <v>556.5300095951762</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.9420542745158</v>
+        <v>761.4689114993248</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.0661810244816</v>
+        <v>688.795387314158</v>
       </c>
       <c r="AD3" t="n">
-        <v>435552.4331656963</v>
+        <v>556530.0095951762</v>
       </c>
       <c r="AE3" t="n">
-        <v>595942.0542745158</v>
+        <v>761468.9114993248</v>
       </c>
       <c r="AF3" t="n">
         <v>9.974580062642006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>539066.1810244815</v>
+        <v>688795.387314158</v>
       </c>
     </row>
   </sheetData>
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.9978445756451</v>
+        <v>589.6620911319941</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.811635802841</v>
+        <v>806.801687142276</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.6576831929116</v>
+        <v>729.8016664746963</v>
       </c>
       <c r="AD2" t="n">
-        <v>452997.8445756451</v>
+        <v>589662.091131994</v>
       </c>
       <c r="AE2" t="n">
-        <v>619811.635802841</v>
+        <v>806801.687142276</v>
       </c>
       <c r="AF2" t="n">
         <v>1.157759241707115e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>560657.6831929116</v>
+        <v>729801.6664746962</v>
       </c>
     </row>
   </sheetData>
@@ -17550,28 +17550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2464919060974</v>
+        <v>1135.933275331739</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.273904493105</v>
+        <v>1554.234021148136</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.795833608204</v>
+        <v>1405.900107550906</v>
       </c>
       <c r="AD2" t="n">
-        <v>953246.4919060974</v>
+        <v>1135933.275331739</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304273.904493105</v>
+        <v>1554234.021148135</v>
       </c>
       <c r="AF2" t="n">
         <v>4.897286266151243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179795.833608204</v>
+        <v>1405900.107550906</v>
       </c>
     </row>
     <row r="3">
@@ -17656,28 +17656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>587.6607733611266</v>
+        <v>722.3127006333866</v>
       </c>
       <c r="AB3" t="n">
-        <v>804.0633958762666</v>
+        <v>988.3001031939494</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.3247138838987</v>
+        <v>893.9781284330248</v>
       </c>
       <c r="AD3" t="n">
-        <v>587660.7733611267</v>
+        <v>722312.7006333866</v>
       </c>
       <c r="AE3" t="n">
-        <v>804063.3958762665</v>
+        <v>988300.1031939494</v>
       </c>
       <c r="AF3" t="n">
         <v>6.71400353382422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>727324.7138838987</v>
+        <v>893978.1284330249</v>
       </c>
     </row>
     <row r="4">
@@ -17762,28 +17762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>499.3422613361384</v>
+        <v>614.7201638350402</v>
       </c>
       <c r="AB4" t="n">
-        <v>683.2221113859168</v>
+        <v>841.0872476987302</v>
       </c>
       <c r="AC4" t="n">
-        <v>618.0163519834999</v>
+        <v>760.815061251729</v>
       </c>
       <c r="AD4" t="n">
-        <v>499342.2613361385</v>
+        <v>614720.1638350403</v>
       </c>
       <c r="AE4" t="n">
-        <v>683222.1113859168</v>
+        <v>841087.2476987302</v>
       </c>
       <c r="AF4" t="n">
         <v>7.458395500382225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>618016.3519834999</v>
+        <v>760815.061251729</v>
       </c>
     </row>
     <row r="5">
@@ -17868,28 +17868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>470.7636105175706</v>
+        <v>595.7609371788326</v>
       </c>
       <c r="AB5" t="n">
-        <v>644.1195405348611</v>
+        <v>815.1463973656586</v>
       </c>
       <c r="AC5" t="n">
-        <v>582.6456756136662</v>
+        <v>737.3499692662335</v>
       </c>
       <c r="AD5" t="n">
-        <v>470763.6105175706</v>
+        <v>595760.9371788326</v>
       </c>
       <c r="AE5" t="n">
-        <v>644119.5405348612</v>
+        <v>815146.3973656585</v>
       </c>
       <c r="AF5" t="n">
         <v>7.626537889238259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.76302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>582645.6756136662</v>
+        <v>737349.9692662335</v>
       </c>
     </row>
   </sheetData>
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1297.979394711505</v>
+        <v>1521.846626112022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1775.95267065377</v>
+        <v>2082.25769298117</v>
       </c>
       <c r="AC2" t="n">
-        <v>1606.458240331802</v>
+        <v>1883.529941230074</v>
       </c>
       <c r="AD2" t="n">
-        <v>1297979.394711505</v>
+        <v>1521846.626112022</v>
       </c>
       <c r="AE2" t="n">
-        <v>1775952.67065377</v>
+        <v>2082257.69298117</v>
       </c>
       <c r="AF2" t="n">
         <v>3.747762033903085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.69791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1606458.240331802</v>
+        <v>1883529.941230074</v>
       </c>
     </row>
     <row r="3">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.4741684613421</v>
+        <v>866.4176151292558</v>
       </c>
       <c r="AB3" t="n">
-        <v>985.7845423658433</v>
+        <v>1185.470804667338</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.7026491997414</v>
+        <v>1072.331134888611</v>
       </c>
       <c r="AD3" t="n">
-        <v>720474.1684613421</v>
+        <v>866417.6151292558</v>
       </c>
       <c r="AE3" t="n">
-        <v>985784.5423658433</v>
+        <v>1185470.804667338</v>
       </c>
       <c r="AF3" t="n">
         <v>5.597620547717655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>891702.6491997413</v>
+        <v>1072331.134888611</v>
       </c>
     </row>
     <row r="4">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>595.0751990459636</v>
+        <v>731.3154713098409</v>
       </c>
       <c r="AB4" t="n">
-        <v>814.2081401996359</v>
+        <v>1000.618091207685</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.5012580472838</v>
+        <v>905.1205049591345</v>
       </c>
       <c r="AD4" t="n">
-        <v>595075.1990459636</v>
+        <v>731315.4713098409</v>
       </c>
       <c r="AE4" t="n">
-        <v>814208.1401996359</v>
+        <v>1000618.091207685</v>
       </c>
       <c r="AF4" t="n">
         <v>6.300939068879682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>736501.2580472839</v>
+        <v>905120.5049591345</v>
       </c>
     </row>
     <row r="5">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>571.7548200901284</v>
+        <v>698.2256091721222</v>
       </c>
       <c r="AB5" t="n">
-        <v>782.3001688897533</v>
+        <v>955.3430820091702</v>
       </c>
       <c r="AC5" t="n">
-        <v>707.6385387360974</v>
+        <v>864.1664790946511</v>
       </c>
       <c r="AD5" t="n">
-        <v>571754.8200901285</v>
+        <v>698225.6091721222</v>
       </c>
       <c r="AE5" t="n">
-        <v>782300.1688897533</v>
+        <v>955343.0820091702</v>
       </c>
       <c r="AF5" t="n">
         <v>6.500413885503962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.1953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>707638.5387360974</v>
+        <v>864166.4790946511</v>
       </c>
     </row>
     <row r="6">
@@ -18589,28 +18589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.8631440589565</v>
+        <v>622.6990895744756</v>
       </c>
       <c r="AB6" t="n">
-        <v>692.1442708083187</v>
+        <v>852.0043659007858</v>
       </c>
       <c r="AC6" t="n">
-        <v>626.0869930329571</v>
+        <v>770.690265014852</v>
       </c>
       <c r="AD6" t="n">
-        <v>505863.1440589565</v>
+        <v>622699.0895744755</v>
       </c>
       <c r="AE6" t="n">
-        <v>692144.2708083186</v>
+        <v>852004.3659007859</v>
       </c>
       <c r="AF6" t="n">
         <v>6.897351162468795e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.74348958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>626086.9930329572</v>
+        <v>770690.265014852</v>
       </c>
     </row>
     <row r="7">
@@ -18695,28 +18695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>498.0248667530859</v>
+        <v>614.8608122686049</v>
       </c>
       <c r="AB7" t="n">
-        <v>681.4195939980372</v>
+        <v>841.2796890905045</v>
       </c>
       <c r="AC7" t="n">
-        <v>616.3858643252705</v>
+        <v>760.9891363071655</v>
       </c>
       <c r="AD7" t="n">
-        <v>498024.8667530859</v>
+        <v>614860.812268605</v>
       </c>
       <c r="AE7" t="n">
-        <v>681419.5939980372</v>
+        <v>841279.6890905044</v>
       </c>
       <c r="AF7" t="n">
         <v>6.95696721737416e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>616385.8643252705</v>
+        <v>760989.1363071655</v>
       </c>
     </row>
   </sheetData>
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.9156157042104</v>
+        <v>641.3185095592567</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.5876707242855</v>
+        <v>877.4802777547994</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.8740403955396</v>
+        <v>793.7347915971854</v>
       </c>
       <c r="AD2" t="n">
-        <v>487915.6157042104</v>
+        <v>641318.5095592566</v>
       </c>
       <c r="AE2" t="n">
-        <v>667587.6707242855</v>
+        <v>877480.2777547995</v>
       </c>
       <c r="AF2" t="n">
         <v>1.199129928334958e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.13151041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>603874.0403955396</v>
+        <v>793734.7915971854</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>628.5874146688024</v>
+        <v>770.166712768816</v>
       </c>
       <c r="AB2" t="n">
-        <v>860.0610320694129</v>
+        <v>1053.77607376766</v>
       </c>
       <c r="AC2" t="n">
-        <v>777.9780142719474</v>
+        <v>953.2051642712826</v>
       </c>
       <c r="AD2" t="n">
-        <v>628587.4146688024</v>
+        <v>770166.7127688159</v>
       </c>
       <c r="AE2" t="n">
-        <v>860061.0320694129</v>
+        <v>1053776.07376766</v>
       </c>
       <c r="AF2" t="n">
         <v>7.165161203249231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.22786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>777978.0142719473</v>
+        <v>953205.1642712826</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>447.7262993840835</v>
+        <v>570.4525361519915</v>
       </c>
       <c r="AB3" t="n">
-        <v>612.5988751075861</v>
+        <v>780.5183265528818</v>
       </c>
       <c r="AC3" t="n">
-        <v>554.1332982552384</v>
+        <v>706.0267529310256</v>
       </c>
       <c r="AD3" t="n">
-        <v>447726.2993840835</v>
+        <v>570452.5361519915</v>
       </c>
       <c r="AE3" t="n">
-        <v>612598.875107586</v>
+        <v>780518.3265528819</v>
       </c>
       <c r="AF3" t="n">
         <v>8.830943909506782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.52473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>554133.2982552384</v>
+        <v>706026.7529310256</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.3194786231108</v>
+        <v>569.9442301645336</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.0422449947579</v>
+        <v>779.8228398759644</v>
       </c>
       <c r="AC4" t="n">
-        <v>553.6297921391434</v>
+        <v>705.3976425264315</v>
       </c>
       <c r="AD4" t="n">
-        <v>447319.4786231108</v>
+        <v>569944.2301645336</v>
       </c>
       <c r="AE4" t="n">
-        <v>612042.2449947579</v>
+        <v>779822.8398759644</v>
       </c>
       <c r="AF4" t="n">
         <v>8.851238046731011e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.47265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>553629.7921391435</v>
+        <v>705397.6425264315</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>811.7860979316545</v>
+        <v>974.1528932590272</v>
       </c>
       <c r="AB2" t="n">
-        <v>1110.721552665143</v>
+        <v>1332.878965149516</v>
       </c>
       <c r="AC2" t="n">
-        <v>1004.715846586271</v>
+        <v>1205.670867423023</v>
       </c>
       <c r="AD2" t="n">
-        <v>811786.0979316544</v>
+        <v>974152.8932590273</v>
       </c>
       <c r="AE2" t="n">
-        <v>1110721.552665143</v>
+        <v>1332878.965149516</v>
       </c>
       <c r="AF2" t="n">
         <v>5.647825600194209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.14713541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1004715.846586271</v>
+        <v>1205670.867423023</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.0630488203943</v>
+        <v>662.7639892705434</v>
       </c>
       <c r="AB3" t="n">
-        <v>723.8874040104804</v>
+        <v>906.8229292035738</v>
       </c>
       <c r="AC3" t="n">
-        <v>654.8006061540718</v>
+        <v>820.2770215743587</v>
       </c>
       <c r="AD3" t="n">
-        <v>529063.0488203943</v>
+        <v>662763.9892705434</v>
       </c>
       <c r="AE3" t="n">
-        <v>723887.4040104804</v>
+        <v>906822.9292035738</v>
       </c>
       <c r="AF3" t="n">
         <v>7.433563482070458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.94401041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>654800.6061540719</v>
+        <v>820277.0215743587</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.6819541005682</v>
+        <v>586.2740096823301</v>
       </c>
       <c r="AB4" t="n">
-        <v>645.3760587395778</v>
+        <v>802.1659646312413</v>
       </c>
       <c r="AC4" t="n">
-        <v>583.7822734844591</v>
+        <v>725.6083708138372</v>
       </c>
       <c r="AD4" t="n">
-        <v>471681.9541005683</v>
+        <v>586274.0096823301</v>
       </c>
       <c r="AE4" t="n">
-        <v>645376.0587395779</v>
+        <v>802165.9646312413</v>
       </c>
       <c r="AF4" t="n">
         <v>7.981608452453845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>583782.2734844591</v>
+        <v>725608.3708138372</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.09684182081</v>
+        <v>582.2428343218369</v>
       </c>
       <c r="AB5" t="n">
-        <v>626.7883087855577</v>
+        <v>796.6503326601089</v>
       </c>
       <c r="AC5" t="n">
-        <v>566.9685122979797</v>
+        <v>720.6191430167918</v>
       </c>
       <c r="AD5" t="n">
-        <v>458096.84182081</v>
+        <v>582242.8343218368</v>
       </c>
       <c r="AE5" t="n">
-        <v>626788.3087855576</v>
+        <v>796650.3326601089</v>
       </c>
       <c r="AF5" t="n">
         <v>8.05092873519423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>566968.5122979797</v>
+        <v>720619.1430167918</v>
       </c>
     </row>
   </sheetData>
